--- a/evaluation/results/hybrid/pca/LOF/split_1/test_50_50/evaluation_metrics.xlsx
+++ b/evaluation/results/hybrid/pca/LOF/split_1/test_50_50/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.4915730337078651</v>
+        <v>0.6132958801498127</v>
       </c>
       <c r="C2">
-        <v>0.3548387096774194</v>
+        <v>0.5641569459172853</v>
       </c>
       <c r="D2">
-        <v>0.02059925093632959</v>
+        <v>0.9962546816479401</v>
       </c>
       <c r="E2">
-        <v>0.03893805309734513</v>
+        <v>0.7203791469194313</v>
       </c>
       <c r="F2">
-        <v>0.02538071065989848</v>
+        <v>0.8639168561221175</v>
       </c>
       <c r="G2">
-        <v>0.02137358941783125</v>
+        <v>0.9677464493108515</v>
       </c>
       <c r="H2">
-        <v>0.4915730337078651</v>
+        <v>0.7977668363983222</v>
       </c>
       <c r="I2">
-        <v>11</v>
+        <v>532</v>
       </c>
       <c r="J2">
-        <v>20</v>
+        <v>411</v>
       </c>
       <c r="K2">
-        <v>514</v>
+        <v>123</v>
       </c>
       <c r="L2">
-        <v>523</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.4956605593056895</v>
+        <v>0.984</v>
       </c>
       <c r="C2">
-        <v>0.9625468164794008</v>
+        <v>0.2303370786516854</v>
       </c>
       <c r="D2">
-        <v>0.6543602800763845</v>
+        <v>0.3732928679817906</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.3548387096774194</v>
+        <v>0.5641569459172853</v>
       </c>
       <c r="C3">
-        <v>0.02059925093632959</v>
+        <v>0.9962546816479401</v>
       </c>
       <c r="D3">
-        <v>0.03893805309734513</v>
+        <v>0.7203791469194313</v>
       </c>
       <c r="E3">
         <v>534</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.4915730337078651</v>
+        <v>0.6132958801498127</v>
       </c>
       <c r="C4">
-        <v>0.4915730337078651</v>
+        <v>0.6132958801498127</v>
       </c>
       <c r="D4">
-        <v>0.4915730337078651</v>
+        <v>0.6132958801498127</v>
       </c>
       <c r="E4">
-        <v>0.4915730337078651</v>
+        <v>0.6132958801498127</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.4252496344915544</v>
+        <v>0.7740784729586426</v>
       </c>
       <c r="C5">
-        <v>0.4915730337078652</v>
+        <v>0.6132958801498127</v>
       </c>
       <c r="D5">
-        <v>0.3466491665868648</v>
+        <v>0.5468360074506109</v>
       </c>
       <c r="E5">
         <v>1068</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.4252496344915545</v>
+        <v>0.7740784729586426</v>
       </c>
       <c r="C6">
-        <v>0.4915730337078651</v>
+        <v>0.6132958801498127</v>
       </c>
       <c r="D6">
-        <v>0.3466491665868648</v>
+        <v>0.5468360074506109</v>
       </c>
       <c r="E6">
         <v>1068</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>514</v>
+        <v>123</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>411</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>523</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>532</v>
       </c>
     </row>
   </sheetData>
